--- a/logs/one_head_map_search_optimization/experiments_summary.xlsx
+++ b/logs/one_head_map_search_optimization/experiments_summary.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CA55"/>
+  <dimension ref="A1:CA56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15189,10 +15189,8 @@
           <t>full</t>
         </is>
       </c>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="V55" t="n">
+        <v>1</v>
       </c>
       <c r="W55" t="inlineStr">
         <is>
@@ -15377,6 +15375,291 @@
         </is>
       </c>
       <c r="CA55" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>46079.59039351852</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>02-26_14-10-10_multihead_spsa_serial_f5_w5_h5_effsu2_lin_r2.pkl</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>2</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Final (Last Iteration)</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>data/reduce_row_number_absolutes</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>16590</v>
+      </c>
+      <c r="G56" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>['wv', 'sv', 'yr', 'ya', 'rarad']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['Surge Velocity', 'Sway Velocity', 'Yaw Rate', 'Yaw Angle']</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>5</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>motion</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>multihead</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>[{'features': ['wv', 'sv', 'yr', 'ya', 'rarad'], 'output_dim': 4, 'reps': 2, 'encoding': 'serial', 'ansatz': 'effsu2', 'entangle': 'lin', 'map': [-1, 0, 1, 2, 3, 4]}]</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>1</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>serial</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>effsu2</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>lin</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>[-1, 0, 1, 2, 3, 4]</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>spsa</t>
+        </is>
+      </c>
+      <c r="Z56" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AB56" t="inlineStr"/>
+      <c r="AC56" t="n">
+        <v>256</v>
+      </c>
+      <c r="AD56" t="inlineStr">
+        <is>
+          <t>[0.05, 0.001]</t>
+        </is>
+      </c>
+      <c r="AE56" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>0.1679709299052031</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>47.91020645819412</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>0.4065884942335898</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>-0.2326750174765225</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>53.92895873588351</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>0.4017427380324801</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>53.92895873588351</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>53.92895873588351</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>0.4017427380324801</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>152.0182814641288</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>-0.2162913919521319</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU56" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="AV56" t="n">
+        <v>0.1261305973059943</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>0.08412878192607676</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>0.1261305973059943</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>0.1261305973059943</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>0.08412878192607676</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>0.1316573057416433</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>0.04399773287841857</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>0.1226604947533774</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>0.575007583754666</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>0.1226604947533774</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>0.1226604947533774</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>0.575007583754666</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>0.3622317434294466</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>-0.2550556247988853</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>0.1094032901159337</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>0.5607803946535859</v>
+      </c>
+      <c r="BL56" t="n">
+        <v>0.1094032901159337</v>
+      </c>
+      <c r="BM56" t="n">
+        <v>0.1094032901159337</v>
+      </c>
+      <c r="BN56" t="n">
+        <v>0.5607803946535859</v>
+      </c>
+      <c r="BO56" t="n">
+        <v>0.2305253039430949</v>
+      </c>
+      <c r="BP56" t="n">
+        <v>0.07451382026122511</v>
+      </c>
+      <c r="BQ56" t="n">
+        <v>215.3576405613588</v>
+      </c>
+      <c r="BR56" t="n">
+        <v>0.3870541917955931</v>
+      </c>
+      <c r="BS56" t="n">
+        <v>215.3576405613588</v>
+      </c>
+      <c r="BT56" t="n">
+        <v>215.3576405613588</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>0.3870541917955931</v>
+      </c>
+      <c r="BV56" t="n">
+        <v>607.3487115034003</v>
+      </c>
+      <c r="BW56" t="n">
+        <v>-0.7286214961492887</v>
+      </c>
+      <c r="BX56" t="inlineStr">
+        <is>
+          <t>experiment_definitions\one_head_map_optimization\terminal_2_map_search.yml</t>
+        </is>
+      </c>
+      <c r="BY56" t="inlineStr">
+        <is>
+          <t>one_head_map_search_optimization</t>
+        </is>
+      </c>
+      <c r="BZ56" t="inlineStr">
+        <is>
+          <t>[1.0, 1.0, 1.0, 1.0]</t>
+        </is>
+      </c>
+      <c r="CA56" t="inlineStr">
         <is>
           <t>true</t>
         </is>

--- a/logs/one_head_map_search_optimization/experiments_summary.xlsx
+++ b/logs/one_head_map_search_optimization/experiments_summary.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CA56"/>
+  <dimension ref="A1:BW80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -813,26 +813,6 @@
           <t>Yaw Angle Global closed R2</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>config</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>save_dir</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>weights</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>features_resolved</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1096,10 +1076,6 @@
       <c r="BW2" t="n">
         <v>0.4833842268557713</v>
       </c>
-      <c r="BX2" t="inlineStr"/>
-      <c r="BY2" t="inlineStr"/>
-      <c r="BZ2" t="inlineStr"/>
-      <c r="CA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1363,10 +1339,6 @@
       <c r="BW3" t="n">
         <v>-1.064675670661048</v>
       </c>
-      <c r="BX3" t="inlineStr"/>
-      <c r="BY3" t="inlineStr"/>
-      <c r="BZ3" t="inlineStr"/>
-      <c r="CA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1630,10 +1602,6 @@
       <c r="BW4" t="n">
         <v>0.4652056101620548</v>
       </c>
-      <c r="BX4" t="inlineStr"/>
-      <c r="BY4" t="inlineStr"/>
-      <c r="BZ4" t="inlineStr"/>
-      <c r="CA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1897,10 +1865,6 @@
       <c r="BW5" t="n">
         <v>0.2483717851054278</v>
       </c>
-      <c r="BX5" t="inlineStr"/>
-      <c r="BY5" t="inlineStr"/>
-      <c r="BZ5" t="inlineStr"/>
-      <c r="CA5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -2164,10 +2128,6 @@
       <c r="BW6" t="n">
         <v>-0.2818851687563066</v>
       </c>
-      <c r="BX6" t="inlineStr"/>
-      <c r="BY6" t="inlineStr"/>
-      <c r="BZ6" t="inlineStr"/>
-      <c r="CA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -2431,10 +2391,6 @@
       <c r="BW7" t="n">
         <v>0.4111713247553563</v>
       </c>
-      <c r="BX7" t="inlineStr"/>
-      <c r="BY7" t="inlineStr"/>
-      <c r="BZ7" t="inlineStr"/>
-      <c r="CA7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -2698,10 +2654,6 @@
       <c r="BW8" t="n">
         <v>-1.129030744106042</v>
       </c>
-      <c r="BX8" t="inlineStr"/>
-      <c r="BY8" t="inlineStr"/>
-      <c r="BZ8" t="inlineStr"/>
-      <c r="CA8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -2965,10 +2917,6 @@
       <c r="BW9" t="n">
         <v>-1.249044529105671</v>
       </c>
-      <c r="BX9" t="inlineStr"/>
-      <c r="BY9" t="inlineStr"/>
-      <c r="BZ9" t="inlineStr"/>
-      <c r="CA9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -3232,10 +3180,6 @@
       <c r="BW10" t="n">
         <v>0.1880069862485058</v>
       </c>
-      <c r="BX10" t="inlineStr"/>
-      <c r="BY10" t="inlineStr"/>
-      <c r="BZ10" t="inlineStr"/>
-      <c r="CA10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -3499,10 +3443,6 @@
       <c r="BW11" t="n">
         <v>-0.3638608618577608</v>
       </c>
-      <c r="BX11" t="inlineStr"/>
-      <c r="BY11" t="inlineStr"/>
-      <c r="BZ11" t="inlineStr"/>
-      <c r="CA11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -3766,10 +3706,6 @@
       <c r="BW12" t="n">
         <v>-0.04144215480107283</v>
       </c>
-      <c r="BX12" t="inlineStr"/>
-      <c r="BY12" t="inlineStr"/>
-      <c r="BZ12" t="inlineStr"/>
-      <c r="CA12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -4033,10 +3969,6 @@
       <c r="BW13" t="n">
         <v>-0.4517239518311276</v>
       </c>
-      <c r="BX13" t="inlineStr"/>
-      <c r="BY13" t="inlineStr"/>
-      <c r="BZ13" t="inlineStr"/>
-      <c r="CA13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -4300,10 +4232,6 @@
       <c r="BW14" t="n">
         <v>-0.7414785055585678</v>
       </c>
-      <c r="BX14" t="inlineStr"/>
-      <c r="BY14" t="inlineStr"/>
-      <c r="BZ14" t="inlineStr"/>
-      <c r="CA14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -4567,10 +4495,6 @@
       <c r="BW15" t="n">
         <v>0.03398322271058873</v>
       </c>
-      <c r="BX15" t="inlineStr"/>
-      <c r="BY15" t="inlineStr"/>
-      <c r="BZ15" t="inlineStr"/>
-      <c r="CA15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -4834,10 +4758,6 @@
       <c r="BW16" t="n">
         <v>-0.948463116023059</v>
       </c>
-      <c r="BX16" t="inlineStr"/>
-      <c r="BY16" t="inlineStr"/>
-      <c r="BZ16" t="inlineStr"/>
-      <c r="CA16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -5101,10 +5021,6 @@
       <c r="BW17" t="n">
         <v>0.1195095549906879</v>
       </c>
-      <c r="BX17" t="inlineStr"/>
-      <c r="BY17" t="inlineStr"/>
-      <c r="BZ17" t="inlineStr"/>
-      <c r="CA17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -5368,10 +5284,6 @@
       <c r="BW18" t="n">
         <v>-0.02235838107072752</v>
       </c>
-      <c r="BX18" t="inlineStr"/>
-      <c r="BY18" t="inlineStr"/>
-      <c r="BZ18" t="inlineStr"/>
-      <c r="CA18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -5635,10 +5547,6 @@
       <c r="BW19" t="n">
         <v>-0.8799743889566594</v>
       </c>
-      <c r="BX19" t="inlineStr"/>
-      <c r="BY19" t="inlineStr"/>
-      <c r="BZ19" t="inlineStr"/>
-      <c r="CA19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -5902,10 +5810,6 @@
       <c r="BW20" t="n">
         <v>-0.03270604551696521</v>
       </c>
-      <c r="BX20" t="inlineStr"/>
-      <c r="BY20" t="inlineStr"/>
-      <c r="BZ20" t="inlineStr"/>
-      <c r="CA20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -6169,10 +6073,6 @@
       <c r="BW21" t="n">
         <v>0.1558996886909492</v>
       </c>
-      <c r="BX21" t="inlineStr"/>
-      <c r="BY21" t="inlineStr"/>
-      <c r="BZ21" t="inlineStr"/>
-      <c r="CA21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -6436,10 +6336,6 @@
       <c r="BW22" t="n">
         <v>-0.2150774163450098</v>
       </c>
-      <c r="BX22" t="inlineStr"/>
-      <c r="BY22" t="inlineStr"/>
-      <c r="BZ22" t="inlineStr"/>
-      <c r="CA22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -6703,10 +6599,6 @@
       <c r="BW23" t="n">
         <v>0.01771616040349833</v>
       </c>
-      <c r="BX23" t="inlineStr"/>
-      <c r="BY23" t="inlineStr"/>
-      <c r="BZ23" t="inlineStr"/>
-      <c r="CA23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -6970,10 +6862,6 @@
       <c r="BW24" t="n">
         <v>0.1242852443092769</v>
       </c>
-      <c r="BX24" t="inlineStr"/>
-      <c r="BY24" t="inlineStr"/>
-      <c r="BZ24" t="inlineStr"/>
-      <c r="CA24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -7237,10 +7125,6 @@
       <c r="BW25" t="n">
         <v>-0.05456999842308696</v>
       </c>
-      <c r="BX25" t="inlineStr"/>
-      <c r="BY25" t="inlineStr"/>
-      <c r="BZ25" t="inlineStr"/>
-      <c r="CA25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -7504,10 +7388,6 @@
       <c r="BW26" t="n">
         <v>0.01396765935836453</v>
       </c>
-      <c r="BX26" t="inlineStr"/>
-      <c r="BY26" t="inlineStr"/>
-      <c r="BZ26" t="inlineStr"/>
-      <c r="CA26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -7771,10 +7651,6 @@
       <c r="BW27" t="n">
         <v>0.03277632373033501</v>
       </c>
-      <c r="BX27" t="inlineStr"/>
-      <c r="BY27" t="inlineStr"/>
-      <c r="BZ27" t="inlineStr"/>
-      <c r="CA27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -8038,10 +7914,6 @@
       <c r="BW28" t="n">
         <v>-0.3002726703771135</v>
       </c>
-      <c r="BX28" t="inlineStr"/>
-      <c r="BY28" t="inlineStr"/>
-      <c r="BZ28" t="inlineStr"/>
-      <c r="CA28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -8305,10 +8177,6 @@
       <c r="BW29" t="n">
         <v>-0.01070796752130332</v>
       </c>
-      <c r="BX29" t="inlineStr"/>
-      <c r="BY29" t="inlineStr"/>
-      <c r="BZ29" t="inlineStr"/>
-      <c r="CA29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -8572,10 +8440,6 @@
       <c r="BW30" t="n">
         <v>0.1117467474364574</v>
       </c>
-      <c r="BX30" t="inlineStr"/>
-      <c r="BY30" t="inlineStr"/>
-      <c r="BZ30" t="inlineStr"/>
-      <c r="CA30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -8839,10 +8703,6 @@
       <c r="BW31" t="n">
         <v>0.07946241389828279</v>
       </c>
-      <c r="BX31" t="inlineStr"/>
-      <c r="BY31" t="inlineStr"/>
-      <c r="BZ31" t="inlineStr"/>
-      <c r="CA31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -9106,10 +8966,6 @@
       <c r="BW32" t="n">
         <v>-0.006543219797754407</v>
       </c>
-      <c r="BX32" t="inlineStr"/>
-      <c r="BY32" t="inlineStr"/>
-      <c r="BZ32" t="inlineStr"/>
-      <c r="CA32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -9373,10 +9229,6 @@
       <c r="BW33" t="n">
         <v>-0.003350454916069889</v>
       </c>
-      <c r="BX33" t="inlineStr"/>
-      <c r="BY33" t="inlineStr"/>
-      <c r="BZ33" t="inlineStr"/>
-      <c r="CA33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -9640,10 +9492,6 @@
       <c r="BW34" t="n">
         <v>0.03732746920772501</v>
       </c>
-      <c r="BX34" t="inlineStr"/>
-      <c r="BY34" t="inlineStr"/>
-      <c r="BZ34" t="inlineStr"/>
-      <c r="CA34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -9907,10 +9755,6 @@
       <c r="BW35" t="n">
         <v>-0.03382380747314784</v>
       </c>
-      <c r="BX35" t="inlineStr"/>
-      <c r="BY35" t="inlineStr"/>
-      <c r="BZ35" t="inlineStr"/>
-      <c r="CA35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -10174,10 +10018,6 @@
       <c r="BW36" t="n">
         <v>-0.005429072296987192</v>
       </c>
-      <c r="BX36" t="inlineStr"/>
-      <c r="BY36" t="inlineStr"/>
-      <c r="BZ36" t="inlineStr"/>
-      <c r="CA36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -10441,10 +10281,6 @@
       <c r="BW37" t="n">
         <v>-0.03443433305832233</v>
       </c>
-      <c r="BX37" t="inlineStr"/>
-      <c r="BY37" t="inlineStr"/>
-      <c r="BZ37" t="inlineStr"/>
-      <c r="CA37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -10708,10 +10544,6 @@
       <c r="BW38" t="n">
         <v>-0.0126764937681374</v>
       </c>
-      <c r="BX38" t="inlineStr"/>
-      <c r="BY38" t="inlineStr"/>
-      <c r="BZ38" t="inlineStr"/>
-      <c r="CA38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -10975,10 +10807,6 @@
       <c r="BW39" t="n">
         <v>-0.005698703813680428</v>
       </c>
-      <c r="BX39" t="inlineStr"/>
-      <c r="BY39" t="inlineStr"/>
-      <c r="BZ39" t="inlineStr"/>
-      <c r="CA39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -11242,10 +11070,6 @@
       <c r="BW40" t="n">
         <v>-0.1450422981941473</v>
       </c>
-      <c r="BX40" t="inlineStr"/>
-      <c r="BY40" t="inlineStr"/>
-      <c r="BZ40" t="inlineStr"/>
-      <c r="CA40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -11509,10 +11333,6 @@
       <c r="BW41" t="n">
         <v>-0.03847166304714</v>
       </c>
-      <c r="BX41" t="inlineStr"/>
-      <c r="BY41" t="inlineStr"/>
-      <c r="BZ41" t="inlineStr"/>
-      <c r="CA41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -11776,10 +11596,6 @@
       <c r="BW42" t="n">
         <v>-0.3148526440167949</v>
       </c>
-      <c r="BX42" t="inlineStr"/>
-      <c r="BY42" t="inlineStr"/>
-      <c r="BZ42" t="inlineStr"/>
-      <c r="CA42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -12043,10 +11859,6 @@
       <c r="BW43" t="n">
         <v>-0.1071821173583591</v>
       </c>
-      <c r="BX43" t="inlineStr"/>
-      <c r="BY43" t="inlineStr"/>
-      <c r="BZ43" t="inlineStr"/>
-      <c r="CA43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -12310,10 +12122,6 @@
       <c r="BW44" t="n">
         <v>-0.2506265339268354</v>
       </c>
-      <c r="BX44" t="inlineStr"/>
-      <c r="BY44" t="inlineStr"/>
-      <c r="BZ44" t="inlineStr"/>
-      <c r="CA44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -12577,10 +12385,6 @@
       <c r="BW45" t="n">
         <v>-0.123842170749259</v>
       </c>
-      <c r="BX45" t="inlineStr"/>
-      <c r="BY45" t="inlineStr"/>
-      <c r="BZ45" t="inlineStr"/>
-      <c r="CA45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -12844,10 +12648,6 @@
       <c r="BW46" t="n">
         <v>-0.05305737516249343</v>
       </c>
-      <c r="BX46" t="inlineStr"/>
-      <c r="BY46" t="inlineStr"/>
-      <c r="BZ46" t="inlineStr"/>
-      <c r="CA46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -13111,10 +12911,6 @@
       <c r="BW47" t="n">
         <v>-0.1192542819999574</v>
       </c>
-      <c r="BX47" t="inlineStr"/>
-      <c r="BY47" t="inlineStr"/>
-      <c r="BZ47" t="inlineStr"/>
-      <c r="CA47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -13379,24 +13175,6 @@
       </c>
       <c r="BW48" t="n">
         <v>-0.008635043102819</v>
-      </c>
-      <c r="BX48" t="inlineStr">
-        <is>
-          <t>experiment_definitions\one_head_map_optimization\terminal_1_map_search.yml</t>
-        </is>
-      </c>
-      <c r="BY48" t="inlineStr">
-        <is>
-          <t>one_head_map_search_optimization</t>
-        </is>
-      </c>
-      <c r="BZ48" t="inlineStr">
-        <is>
-          <t>[1.0, 1.0, 1.0, 1.0]</t>
-        </is>
-      </c>
-      <c r="CA48" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -13661,26 +13439,6 @@
       <c r="BW49" t="n">
         <v>0.05994872827739572</v>
       </c>
-      <c r="BX49" t="inlineStr">
-        <is>
-          <t>experiment_definitions\one_head_map_optimization\terminal_2_map_search.yml</t>
-        </is>
-      </c>
-      <c r="BY49" t="inlineStr">
-        <is>
-          <t>one_head_map_search_optimization</t>
-        </is>
-      </c>
-      <c r="BZ49" t="inlineStr">
-        <is>
-          <t>[1.0, 1.0, 1.0, 1.0]</t>
-        </is>
-      </c>
-      <c r="CA49" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -13944,26 +13702,6 @@
       <c r="BW50" t="n">
         <v>-0.329131629699176</v>
       </c>
-      <c r="BX50" t="inlineStr">
-        <is>
-          <t>experiment_definitions\one_head_map_optimization\terminal_1_map_search.yml</t>
-        </is>
-      </c>
-      <c r="BY50" t="inlineStr">
-        <is>
-          <t>one_head_map_search_optimization</t>
-        </is>
-      </c>
-      <c r="BZ50" t="inlineStr">
-        <is>
-          <t>[1.0, 1.0, 1.0, 1.0]</t>
-        </is>
-      </c>
-      <c r="CA50" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -14227,26 +13965,6 @@
       <c r="BW51" t="n">
         <v>-0.5646026599354195</v>
       </c>
-      <c r="BX51" t="inlineStr">
-        <is>
-          <t>experiment_definitions\one_head_map_optimization\terminal_3_map_search.yml</t>
-        </is>
-      </c>
-      <c r="BY51" t="inlineStr">
-        <is>
-          <t>one_head_map_search_optimization</t>
-        </is>
-      </c>
-      <c r="BZ51" t="inlineStr">
-        <is>
-          <t>[1.0, 1.0, 1.0, 1.0]</t>
-        </is>
-      </c>
-      <c r="CA51" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -14510,26 +14228,6 @@
       <c r="BW52" t="n">
         <v>-0.06569453277681436</v>
       </c>
-      <c r="BX52" t="inlineStr">
-        <is>
-          <t>experiment_definitions\one_head_map_optimization\terminal_1_map_search.yml</t>
-        </is>
-      </c>
-      <c r="BY52" t="inlineStr">
-        <is>
-          <t>one_head_map_search_optimization</t>
-        </is>
-      </c>
-      <c r="BZ52" t="inlineStr">
-        <is>
-          <t>[1.0, 1.0, 1.0, 1.0]</t>
-        </is>
-      </c>
-      <c r="CA52" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -14793,26 +14491,6 @@
       <c r="BW53" t="n">
         <v>-0.9431843123477739</v>
       </c>
-      <c r="BX53" t="inlineStr">
-        <is>
-          <t>experiment_definitions\one_head_map_optimization\terminal_2_map_search.yml</t>
-        </is>
-      </c>
-      <c r="BY53" t="inlineStr">
-        <is>
-          <t>one_head_map_search_optimization</t>
-        </is>
-      </c>
-      <c r="BZ53" t="inlineStr">
-        <is>
-          <t>[1.0, 1.0, 1.0, 1.0]</t>
-        </is>
-      </c>
-      <c r="CA53" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -15076,26 +14754,6 @@
       <c r="BW54" t="n">
         <v>-0.4148581418172241</v>
       </c>
-      <c r="BX54" t="inlineStr">
-        <is>
-          <t>experiment_definitions\one_head_map_optimization\terminal_3_map_search.yml</t>
-        </is>
-      </c>
-      <c r="BY54" t="inlineStr">
-        <is>
-          <t>one_head_map_search_optimization</t>
-        </is>
-      </c>
-      <c r="BZ54" t="inlineStr">
-        <is>
-          <t>[1.0, 1.0, 1.0, 1.0]</t>
-        </is>
-      </c>
-      <c r="CA54" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -15359,26 +15017,6 @@
       <c r="BW55" t="n">
         <v>-0.2559038782112888</v>
       </c>
-      <c r="BX55" t="inlineStr">
-        <is>
-          <t>experiment_definitions\one_head_map_optimization\terminal_1_map_search.yml</t>
-        </is>
-      </c>
-      <c r="BY55" t="inlineStr">
-        <is>
-          <t>one_head_map_search_optimization</t>
-        </is>
-      </c>
-      <c r="BZ55" t="inlineStr">
-        <is>
-          <t>[1.0, 1.0, 1.0, 1.0]</t>
-        </is>
-      </c>
-      <c r="CA55" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -15472,10 +15110,8 @@
           <t>lin</t>
         </is>
       </c>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="V56" t="n">
+        <v>2</v>
       </c>
       <c r="W56" t="inlineStr">
         <is>
@@ -15644,25 +15280,6319 @@
       <c r="BW56" t="n">
         <v>-0.7286214961492887</v>
       </c>
-      <c r="BX56" t="inlineStr">
-        <is>
-          <t>experiment_definitions\one_head_map_optimization\terminal_2_map_search.yml</t>
-        </is>
-      </c>
-      <c r="BY56" t="inlineStr">
-        <is>
-          <t>one_head_map_search_optimization</t>
-        </is>
-      </c>
-      <c r="BZ56" t="inlineStr">
-        <is>
-          <t>[1.0, 1.0, 1.0, 1.0]</t>
-        </is>
-      </c>
-      <c r="CA56" t="inlineStr">
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>46079.62722222223</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>02-26_15-03-12_multihead_spsa_serial_f5_w5_h5_effsu2_rev_r2.pkl</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>3</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Best (Lowest Val Loss)</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>data/reduce_row_number_absolutes</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>16590</v>
+      </c>
+      <c r="G57" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>['wv', 'sv', 'yr', 'ya', 'rarad']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['Surge Velocity', 'Sway Velocity', 'Yaw Rate', 'Yaw Angle']</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>5</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>motion</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>true</t>
         </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>multihead</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>[{'features': ['wv', 'sv', 'yr', 'ya', 'rarad'], 'output_dim': 4, 'reps': 2, 'encoding': 'serial', 'ansatz': 'effsu2', 'entangle': 'rev', 'map': [-1, 0, 1, 2, 3, 4]}]</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>serial</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>effsu2</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>rev</t>
+        </is>
+      </c>
+      <c r="V57" t="n">
+        <v>2</v>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>[-1, 0, 1, 2, 3, 4]</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>spsa</t>
+        </is>
+      </c>
+      <c r="Z57" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AB57" t="inlineStr"/>
+      <c r="AC57" t="n">
+        <v>256</v>
+      </c>
+      <c r="AD57" t="inlineStr">
+        <is>
+          <t>[0.05, 0.001]</t>
+        </is>
+      </c>
+      <c r="AE57" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>0.1294050725382235</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>51.09700760034557</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>0.5306377151761652</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>-0.05050880966991758</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>59.23817182191222</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>0.5229837341476955</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>59.23817182191222</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>59.23817182191222</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>0.5229837341476955</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>95.64448808851166</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>-0.05139205590288107</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU57" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="AV57" t="n">
+        <v>0.1316489239989699</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>0.04405859516747324</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>0.1316489239989699</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>0.1316489239989699</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>0.04405859516747324</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>0.1288970502191938</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>0.06404075686734101</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>0.04146995178453952</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>0.8563154743022616</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>0.04146995178453952</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>0.04146995178453952</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>0.8563154743022616</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>0.31989159524398</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>-0.1083560544302316</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>0.03353145311364747</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>0.8653818218111974</v>
+      </c>
+      <c r="BL57" t="n">
+        <v>0.03353145311364747</v>
+      </c>
+      <c r="BM57" t="n">
+        <v>0.03353145311364747</v>
+      </c>
+      <c r="BN57" t="n">
+        <v>0.8653818218111974</v>
+      </c>
+      <c r="BO57" t="n">
+        <v>0.2676195032090292</v>
+      </c>
+      <c r="BP57" t="n">
+        <v>-0.07440765682561445</v>
+      </c>
+      <c r="BQ57" t="n">
+        <v>236.7460369587521</v>
+      </c>
+      <c r="BR57" t="n">
+        <v>0.3261790453098512</v>
+      </c>
+      <c r="BS57" t="n">
+        <v>236.7460369587521</v>
+      </c>
+      <c r="BT57" t="n">
+        <v>236.7460369587521</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>0.3261790453098512</v>
+      </c>
+      <c r="BV57" t="n">
+        <v>381.8615442053737</v>
+      </c>
+      <c r="BW57" t="n">
+        <v>-0.08684526922302571</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>46079.64769675926</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>02-26_15-32-41_multihead_spsa_serial_f5_w5_h5_effsu2_full_r2.pkl</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Final (Last Iteration)</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>data/reduce_row_number_absolutes</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>16590</v>
+      </c>
+      <c r="G58" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>['wv', 'sv', 'yr', 'ya', 'rarad']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['Surge Velocity', 'Sway Velocity', 'Yaw Rate', 'Yaw Angle']</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>5</v>
+      </c>
+      <c r="K58" t="n">
+        <v>5</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>motion</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>multihead</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>[{'features': ['wv', 'sv', 'yr', 'ya', 'rarad'], 'output_dim': 4, 'reps': 2, 'encoding': 'serial', 'ansatz': 'effsu2', 'entangle': 'full', 'map': [-1, 0, 1, 2, 3, 4]}]</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>1</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>serial</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>effsu2</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="V58" t="n">
+        <v>2</v>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>[-1, 0, 1, 2, 3, 4]</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>spsa</t>
+        </is>
+      </c>
+      <c r="Z58" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AB58" t="inlineStr"/>
+      <c r="AC58" t="n">
+        <v>256</v>
+      </c>
+      <c r="AD58" t="inlineStr">
+        <is>
+          <t>[0.05, 0.001]</t>
+        </is>
+      </c>
+      <c r="AE58" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>0.1232940134215936</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>31.89801781675803</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>0.5659667412618696</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>0.2668775941355985</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>39.99674960863632</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>0.5306008893542873</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>39.99674960863632</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>39.99674960863632</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>0.5306008893542873</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>77.26639671920027</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>0.2194704653380955</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU58" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="AV58" t="n">
+        <v>0.1318279637056324</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>0.04275853540618635</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>0.1318279637056324</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>0.1318279637056324</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>0.04275853540618635</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>0.1458941875286394</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>-0.0593804365930013</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>0.05198616825502706</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>0.8198790303066823</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>0.05198616825502706</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>0.05198616825502706</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>0.8198790303066823</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>0.1855367921369961</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>0.3571546425664558</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>0.07114096076204693</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>0.7143915445617829</v>
+      </c>
+      <c r="BL58" t="n">
+        <v>0.07114096076204693</v>
+      </c>
+      <c r="BM58" t="n">
+        <v>0.07114096076204693</v>
+      </c>
+      <c r="BN58" t="n">
+        <v>0.7143915445617829</v>
+      </c>
+      <c r="BO58" t="n">
+        <v>0.1348959199992424</v>
+      </c>
+      <c r="BP58" t="n">
+        <v>0.4584355490394928</v>
+      </c>
+      <c r="BQ58" t="n">
+        <v>159.7320433418231</v>
+      </c>
+      <c r="BR58" t="n">
+        <v>0.5453744471424972</v>
+      </c>
+      <c r="BS58" t="n">
+        <v>159.7320433418231</v>
+      </c>
+      <c r="BT58" t="n">
+        <v>159.7320433418231</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>0.5453744471424972</v>
+      </c>
+      <c r="BV58" t="n">
+        <v>308.5992599771363</v>
+      </c>
+      <c r="BW58" t="n">
+        <v>0.1216721063394333</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>46079.69673611111</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>02-26_16-43-18_multihead_spsa_serial_f5_w5_h5_effsu2_lin_r2.pkl</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>3</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Final (Last Iteration)</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>data/reduce_row_number_absolutes</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>16590</v>
+      </c>
+      <c r="G59" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>['wv', 'sv', 'yr', 'ya', 'rarad']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['Surge Velocity', 'Sway Velocity', 'Yaw Rate', 'Yaw Angle']</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>5</v>
+      </c>
+      <c r="K59" t="n">
+        <v>5</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>motion</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>multihead</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>[{'features': ['wv', 'sv', 'yr', 'ya', 'rarad'], 'output_dim': 4, 'reps': 2, 'encoding': 'serial', 'ansatz': 'effsu2', 'entangle': 'lin', 'map': [-1, 0, 1, 2, 3, 4]}]</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>serial</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>effsu2</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>lin</t>
+        </is>
+      </c>
+      <c r="V59" t="n">
+        <v>2</v>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>[-1, 0, 1, 2, 3, 4]</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>spsa</t>
+        </is>
+      </c>
+      <c r="Z59" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AB59" t="inlineStr"/>
+      <c r="AC59" t="n">
+        <v>256</v>
+      </c>
+      <c r="AD59" t="inlineStr">
+        <is>
+          <t>[0.05, 0.001]</t>
+        </is>
+      </c>
+      <c r="AE59" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>0.1336863890193185</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>40.33163671417439</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>0.5772463033686839</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>-0.3437284584962745</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>47.81571939823064</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>0.5640722757936086</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>47.81571939823064</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>47.81571939823064</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>0.5640722757936086</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>140.9941569053356</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>-0.3023062489234452</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU59" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="AV59" t="n">
+        <v>0.1129916315577512</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>0.1795346613962367</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>0.1129916315577512</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>0.1129916315577512</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>0.1795346613962367</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>0.1418924236544956</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>-0.03032245675195844</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>0.0468006665470079</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>0.8378456861950868</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>0.0468006665470079</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>0.0468006665470079</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>0.8378456861950868</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>0.4107087644174051</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>-0.42301814870254</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>0.05413433991389215</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>0.7826677480405551</v>
+      </c>
+      <c r="BL59" t="n">
+        <v>0.05413433991389215</v>
+      </c>
+      <c r="BM59" t="n">
+        <v>0.05413433991389215</v>
+      </c>
+      <c r="BN59" t="n">
+        <v>0.7826677480405551</v>
+      </c>
+      <c r="BO59" t="n">
+        <v>0.2872200792183853</v>
+      </c>
+      <c r="BP59" t="n">
+        <v>-0.1530977698036515</v>
+      </c>
+      <c r="BQ59" t="n">
+        <v>191.048950954903</v>
+      </c>
+      <c r="BR59" t="n">
+        <v>0.4562410075425547</v>
+      </c>
+      <c r="BS59" t="n">
+        <v>191.048950954903</v>
+      </c>
+      <c r="BT59" t="n">
+        <v>191.048950954903</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>0.4562410075425547</v>
+      </c>
+      <c r="BV59" t="n">
+        <v>563.1368063540518</v>
+      </c>
+      <c r="BW59" t="n">
+        <v>-0.6027866204356369</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>46079.74368055556</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>02-26_17-50-54_multihead_spsa_serial_f5_w5_h5_effsu2_rev_r2.pkl</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Final (Last Iteration)</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>data/reduce_row_number_absolutes</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>16590</v>
+      </c>
+      <c r="G60" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>['wv', 'sv', 'yr', 'ya', 'rarad']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['Surge Velocity', 'Sway Velocity', 'Yaw Rate', 'Yaw Angle']</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>5</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>motion</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>multihead</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>[{'features': ['wv', 'sv', 'yr', 'ya', 'rarad'], 'output_dim': 4, 'reps': 2, 'encoding': 'serial', 'ansatz': 'effsu2', 'entangle': 'rev', 'map': [-1, 2, 4, 0, 3, 1]}]</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>serial</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>effsu2</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>rev</t>
+        </is>
+      </c>
+      <c r="V60" t="n">
+        <v>2</v>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>[-1, 2, 4, 0, 3, 1]</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>spsa</t>
+        </is>
+      </c>
+      <c r="Z60" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AB60" t="inlineStr"/>
+      <c r="AC60" t="n">
+        <v>256</v>
+      </c>
+      <c r="AD60" t="inlineStr">
+        <is>
+          <t>[0.05, 0.001]</t>
+        </is>
+      </c>
+      <c r="AE60" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>0.1966592725108899</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>70.04936789523356</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>0.3457253421258456</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>-0.09049777668027512</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>82.88968922868229</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>0.2519615923299843</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>82.88968922868229</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>82.88968922868229</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>0.2519615923299843</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>87.34965838022096</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>-0.104083060188997</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU60" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="AV60" t="n">
+        <v>0.09839248385395516</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>0.2855433498184342</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>0.09839248385395516</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>0.09839248385395516</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>0.2855433498184342</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>0.1913812568978958</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>-0.3896753731084095</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>0.192242669193282</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>0.3339202108211311</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>0.192242669193282</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>0.192242669193282</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>0.3339202108211311</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>0.2929069324957954</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>-0.01485996144630319</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>0.1666991041698189</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>0.3307558240023615</v>
+      </c>
+      <c r="BL60" t="n">
+        <v>0.1666991041698189</v>
+      </c>
+      <c r="BM60" t="n">
+        <v>0.1666991041698189</v>
+      </c>
+      <c r="BN60" t="n">
+        <v>0.3307558240023615</v>
+      </c>
+      <c r="BO60" t="n">
+        <v>0.2539298182825172</v>
+      </c>
+      <c r="BP60" t="n">
+        <v>-0.01944790191908763</v>
+      </c>
+      <c r="BQ60" t="n">
+        <v>331.1014226575113</v>
+      </c>
+      <c r="BR60" t="n">
+        <v>0.05762698467800909</v>
+      </c>
+      <c r="BS60" t="n">
+        <v>331.1014226575113</v>
+      </c>
+      <c r="BT60" t="n">
+        <v>331.1014226575113</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>0.05762698467800909</v>
+      </c>
+      <c r="BV60" t="n">
+        <v>348.6604155132065</v>
+      </c>
+      <c r="BW60" t="n">
+        <v>0.007650995717807696</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>46079.78798611111</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>02-26_18-54-42_multihead_spsa_serial_f5_w5_h5_effsu2_full_r2.pkl</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>2</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Final (Last Iteration)</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>data/reduce_row_number_absolutes</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>16590</v>
+      </c>
+      <c r="G61" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>['wv', 'sv', 'yr', 'ya', 'rarad']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['Surge Velocity', 'Sway Velocity', 'Yaw Rate', 'Yaw Angle']</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>5</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>motion</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>multihead</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>[{'features': ['wv', 'sv', 'yr', 'ya', 'rarad'], 'output_dim': 4, 'reps': 2, 'encoding': 'serial', 'ansatz': 'effsu2', 'entangle': 'full', 'map': [-1, 0, 1, 2, 3, 4]}]</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>serial</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>effsu2</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="V61" t="n">
+        <v>2</v>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>[-1, 0, 1, 2, 3, 4]</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>spsa</t>
+        </is>
+      </c>
+      <c r="Z61" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AB61" t="inlineStr"/>
+      <c r="AC61" t="n">
+        <v>256</v>
+      </c>
+      <c r="AD61" t="inlineStr">
+        <is>
+          <t>[0.05, 0.001]</t>
+        </is>
+      </c>
+      <c r="AE61" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>0.1558696664912193</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>74.32357272280403</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>0.3988020193964996</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>0.003211596726503479</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>79.40426880978296</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>0.3842576609372492</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>79.40426880978296</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>79.40426880978296</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>0.3842576609372492</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>92.92433876592825</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>0.007087606161565368</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU61" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="AV61" t="n">
+        <v>0.1383373133580167</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>-0.004507759389318133</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>0.1383373133580167</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>0.1383373133580167</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>-0.004507759389318133</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>0.1405073546541862</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>-0.02026506497292568</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>0.06788427468647543</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>0.7647954870712537</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>0.06788427468647543</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>0.06788427468647543</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>0.7647954870712537</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>0.2788668983704696</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>0.03378575809923001</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>0.07972651924024668</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>0.6799232429003117</v>
+      </c>
+      <c r="BL61" t="n">
+        <v>0.07972651924024668</v>
+      </c>
+      <c r="BM61" t="n">
+        <v>0.07972651924024668</v>
+      </c>
+      <c r="BN61" t="n">
+        <v>0.6799232429003117</v>
+      </c>
+      <c r="BO61" t="n">
+        <v>0.2314270409248402</v>
+      </c>
+      <c r="BP61" t="n">
+        <v>0.07089363150064276</v>
+      </c>
+      <c r="BQ61" t="n">
+        <v>317.3311271318479</v>
+      </c>
+      <c r="BR61" t="n">
+        <v>0.09681967316674844</v>
+      </c>
+      <c r="BS61" t="n">
+        <v>317.3311271318479</v>
+      </c>
+      <c r="BT61" t="n">
+        <v>317.3311271318479</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>0.09681967316674844</v>
+      </c>
+      <c r="BV61" t="n">
+        <v>371.0465537697644</v>
+      </c>
+      <c r="BW61" t="n">
+        <v>-0.05606389998068995</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>46079.82119212963</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>02-26_19-42-31_multihead_spsa_serial_f5_w5_h5_effsu2_lin_r2.pkl</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Best (Lowest Val Loss)</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>data/reduce_row_number_absolutes</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>16590</v>
+      </c>
+      <c r="G62" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>['wv', 'sv', 'yr', 'ya', 'rarad']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['Surge Velocity', 'Sway Velocity', 'Yaw Rate', 'Yaw Angle']</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>5</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>motion</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>multihead</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>[{'features': ['wv', 'sv', 'yr', 'ya', 'rarad'], 'output_dim': 4, 'reps': 2, 'encoding': 'serial', 'ansatz': 'effsu2', 'entangle': 'lin', 'map': [-1, 2, 4, 0, 3, 1]}]</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>1</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>serial</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>effsu2</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>lin</t>
+        </is>
+      </c>
+      <c r="V62" t="n">
+        <v>2</v>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>[-1, 2, 4, 0, 3, 1]</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>spsa</t>
+        </is>
+      </c>
+      <c r="Z62" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AB62" t="inlineStr"/>
+      <c r="AC62" t="n">
+        <v>256</v>
+      </c>
+      <c r="AD62" t="inlineStr">
+        <is>
+          <t>[0.05, 0.001]</t>
+        </is>
+      </c>
+      <c r="AE62" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>0.220381919916409</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>69.59458224758801</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>0.2548295755095645</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>-0.03029488190658675</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>82.14522899387595</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>0.1834238630529152</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>82.14522899387595</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>82.14522899387595</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>0.1834238630529152</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>85.39323628531422</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>-0.04271533927086338</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU62" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="AV62" t="n">
+        <v>0.1112584224752809</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>0.1921200003024487</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>0.1112584224752809</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>0.1112584224752809</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>0.1921200003024487</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>0.164162313503177</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>-0.1920306510975556</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>0.2234596038697726</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>0.2257601995427712</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>0.2234596038697726</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>0.2234596038697726</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>0.2257601995427712</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>0.2947144953791521</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>-0.02112278077421914</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>0.1869313503030725</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>0.2495297552753394</v>
+      </c>
+      <c r="BL62" t="n">
+        <v>0.1869313503030725</v>
+      </c>
+      <c r="BM62" t="n">
+        <v>0.1869313503030725</v>
+      </c>
+      <c r="BN62" t="n">
+        <v>0.2495297552753394</v>
+      </c>
+      <c r="BO62" t="n">
+        <v>0.2459813364592347</v>
+      </c>
+      <c r="BP62" t="n">
+        <v>0.01246273848145008</v>
+      </c>
+      <c r="BQ62" t="n">
+        <v>328.0592665988565</v>
+      </c>
+      <c r="BR62" t="n">
+        <v>0.06628549709110754</v>
+      </c>
+      <c r="BS62" t="n">
+        <v>328.0592665988565</v>
+      </c>
+      <c r="BT62" t="n">
+        <v>328.0592665988565</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>0.06628549709110754</v>
+      </c>
+      <c r="BV62" t="n">
+        <v>340.8680869959135</v>
+      </c>
+      <c r="BW62" t="n">
+        <v>0.0298293363068689</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>46079.85946759259</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>02-26_20-37-38_multihead_spsa_serial_f5_w5_h5_effsu2_rev_r2.pkl</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>2</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Final (Last Iteration)</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>data/reduce_row_number_absolutes</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>16590</v>
+      </c>
+      <c r="G63" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>['wv', 'sv', 'yr', 'ya', 'rarad']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['Surge Velocity', 'Sway Velocity', 'Yaw Rate', 'Yaw Angle']</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>5</v>
+      </c>
+      <c r="K63" t="n">
+        <v>5</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>motion</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>multihead</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>[{'features': ['wv', 'sv', 'yr', 'ya', 'rarad'], 'output_dim': 4, 'reps': 2, 'encoding': 'serial', 'ansatz': 'effsu2', 'entangle': 'rev', 'map': [-1, 2, 4, 0, 3, 1]}]</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>serial</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>effsu2</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>rev</t>
+        </is>
+      </c>
+      <c r="V63" t="n">
+        <v>2</v>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>[-1, 2, 4, 0, 3, 1]</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>spsa</t>
+        </is>
+      </c>
+      <c r="Z63" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AB63" t="inlineStr"/>
+      <c r="AC63" t="n">
+        <v>256</v>
+      </c>
+      <c r="AD63" t="inlineStr">
+        <is>
+          <t>[0.05, 0.001]</t>
+        </is>
+      </c>
+      <c r="AE63" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>0.1693605163384723</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>49.76752746548444</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>0.4771550589350688</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>0.1159721913051414</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>70.05065456318232</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>0.3745522003663082</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>70.05065456318232</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>70.05065456318232</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>0.3745522003663082</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>80.04955638798702</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>0.07441098836099047</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU63" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="AV63" t="n">
+        <v>0.09190975169023044</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>0.3326163672309616</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>0.09190975169023044</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>0.09190975169023044</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>0.3326163672309616</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>0.1367868614414718</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>0.006750526194837181</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>0.1305740746833622</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>0.5475887194955826</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>0.1305740746833622</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>0.1305740746833622</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>0.5475887194955826</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>0.2492048696505405</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>0.1365583523380451</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>0.1458492435711961</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>0.4144614194552091</v>
+      </c>
+      <c r="BL63" t="n">
+        <v>0.1458492435711961</v>
+      </c>
+      <c r="BM63" t="n">
+        <v>0.1458492435711961</v>
+      </c>
+      <c r="BN63" t="n">
+        <v>0.4144614194552091</v>
+      </c>
+      <c r="BO63" t="n">
+        <v>0.2331657067773894</v>
+      </c>
+      <c r="BP63" t="n">
+        <v>0.06391343804597893</v>
+      </c>
+      <c r="BQ63" t="n">
+        <v>279.8342851827852</v>
+      </c>
+      <c r="BR63" t="n">
+        <v>0.2035422952834821</v>
+      </c>
+      <c r="BS63" t="n">
+        <v>279.8342851827852</v>
+      </c>
+      <c r="BT63" t="n">
+        <v>279.8342851827852</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>0.2035422952834821</v>
+      </c>
+      <c r="BV63" t="n">
+        <v>319.5790681140782</v>
+      </c>
+      <c r="BW63" t="n">
+        <v>0.0904216368651003</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>46079.89192129629</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>02-26_21-24-22_multihead_spsa_serial_f5_w5_h5_effsu2_full_r2.pkl</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>3</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Final (Last Iteration)</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>data/reduce_row_number_absolutes</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>16590</v>
+      </c>
+      <c r="G64" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>['wv', 'sv', 'yr', 'ya', 'rarad']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['Surge Velocity', 'Sway Velocity', 'Yaw Rate', 'Yaw Angle']</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>5</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>motion</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>multihead</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>[{'features': ['wv', 'sv', 'yr', 'ya', 'rarad'], 'output_dim': 4, 'reps': 2, 'encoding': 'serial', 'ansatz': 'effsu2', 'entangle': 'full', 'map': [-1, 0, 1, 2, 3, 4]}]</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>1</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>serial</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>effsu2</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="V64" t="n">
+        <v>2</v>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>[-1, 0, 1, 2, 3, 4]</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>spsa</t>
+        </is>
+      </c>
+      <c r="Z64" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AB64" t="inlineStr"/>
+      <c r="AC64" t="n">
+        <v>256</v>
+      </c>
+      <c r="AD64" t="inlineStr">
+        <is>
+          <t>[0.05, 0.001]</t>
+        </is>
+      </c>
+      <c r="AE64" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>0.1477543610700091</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>60.11628490495831</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>0.4810946820163048</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>0.06477337425945665</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>65.97789584949494</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>0.4687620613053974</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>65.97789584949494</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>65.97789584949494</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>0.4687620613053974</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>91.73637443665444</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>0.0713013043183614</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU64" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="AV64" t="n">
+        <v>0.134586271312324</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>0.02272965580424147</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>0.134586271312324</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>0.134586271312324</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>0.02272965580424147</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>0.1483321507548987</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>-0.07708320180100747</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>0.0377734159373759</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>0.8691231814991243</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>0.0377734159373759</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>0.0377734159373759</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>0.8691231814991243</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>0.2405889721850973</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>0.1664105968550998</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>0.06634273399633471</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>0.7336549073378515</v>
+      </c>
+      <c r="BL64" t="n">
+        <v>0.06634273399633471</v>
+      </c>
+      <c r="BM64" t="n">
+        <v>0.06634273399633471</v>
+      </c>
+      <c r="BN64" t="n">
+        <v>0.7336549073378515</v>
+      </c>
+      <c r="BO64" t="n">
+        <v>0.1896481450487459</v>
+      </c>
+      <c r="BP64" t="n">
+        <v>0.2386226836988137</v>
+      </c>
+      <c r="BQ64" t="n">
+        <v>263.6728809767345</v>
+      </c>
+      <c r="BR64" t="n">
+        <v>0.2495405005803749</v>
+      </c>
+      <c r="BS64" t="n">
+        <v>263.6728809767345</v>
+      </c>
+      <c r="BT64" t="n">
+        <v>263.6728809767345</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>0.2495405005803749</v>
+      </c>
+      <c r="BV64" t="n">
+        <v>366.3669284786293</v>
+      </c>
+      <c r="BW64" t="n">
+        <v>-0.0427448614794701</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>46079.9109375</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>02-26_21-51-45_multihead_spsa_serial_f5_w5_h5_effsu2_lin_r2.pkl</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>2</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Best (Lowest Val Loss)</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>data/reduce_row_number_absolutes</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>16590</v>
+      </c>
+      <c r="G65" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>['wv', 'sv', 'yr', 'ya', 'rarad']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['Surge Velocity', 'Sway Velocity', 'Yaw Rate', 'Yaw Angle']</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>5</v>
+      </c>
+      <c r="K65" t="n">
+        <v>5</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>motion</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>multihead</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>[{'features': ['wv', 'sv', 'yr', 'ya', 'rarad'], 'output_dim': 4, 'reps': 2, 'encoding': 'serial', 'ansatz': 'effsu2', 'entangle': 'lin', 'map': [-1, 2, 4, 0, 3, 1]}]</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>1</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>serial</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>effsu2</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>lin</t>
+        </is>
+      </c>
+      <c r="V65" t="n">
+        <v>2</v>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>[-1, 2, 4, 0, 3, 1]</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>spsa</t>
+        </is>
+      </c>
+      <c r="Z65" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AB65" t="inlineStr"/>
+      <c r="AC65" t="n">
+        <v>256</v>
+      </c>
+      <c r="AD65" t="inlineStr">
+        <is>
+          <t>[0.05, 0.001]</t>
+        </is>
+      </c>
+      <c r="AE65" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>0.189046997795768</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>58.80278077525299</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>0.4347945488402675</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>0.03104833688401321</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>79.37860831324531</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>0.3765488868637229</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>79.37860831324531</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>79.37860831324531</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>0.3765488868637229</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>92.02966467387751</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>0.008494061991693808</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU65" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="AV65" t="n">
+        <v>0.07217535936116057</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>0.4759135712910183</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>0.07217535936116057</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>0.07217535936116057</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>0.4759135712910183</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>0.1398183246267493</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>-0.01526181608647859</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>0.1485526071288676</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>0.485296944463018</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>0.1485526071288676</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>0.1485526071288676</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>0.485296944463018</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>0.2851013878076464</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>0.01218458377420295</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>0.1375781415955036</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>0.4476672777223044</v>
+      </c>
+      <c r="BL65" t="n">
+        <v>0.1375781415955036</v>
+      </c>
+      <c r="BM65" t="n">
+        <v>0.1375781415955036</v>
+      </c>
+      <c r="BN65" t="n">
+        <v>0.4476672777223044</v>
+      </c>
+      <c r="BO65" t="n">
+        <v>0.2284303181952971</v>
+      </c>
+      <c r="BP65" t="n">
+        <v>0.08292452539065076</v>
+      </c>
+      <c r="BQ65" t="n">
+        <v>317.1561271448945</v>
+      </c>
+      <c r="BR65" t="n">
+        <v>0.09731775397855225</v>
+      </c>
+      <c r="BS65" t="n">
+        <v>317.1561271448945</v>
+      </c>
+      <c r="BT65" t="n">
+        <v>317.1561271448945</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>0.09731775397855225</v>
+      </c>
+      <c r="BV65" t="n">
+        <v>367.4653086648823</v>
+      </c>
+      <c r="BW65" t="n">
+        <v>-0.04587104511160711</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>46079.94679398148</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>02-26_22-43-23_multihead_spsa_serial_f5_w5_h5_effsu2_rev_r2.pkl</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>3</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Final (Last Iteration)</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>data/reduce_row_number_absolutes</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>16590</v>
+      </c>
+      <c r="G66" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>['wv', 'sv', 'yr', 'ya', 'rarad']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['Surge Velocity', 'Sway Velocity', 'Yaw Rate', 'Yaw Angle']</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>5</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>motion</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>multihead</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>[{'features': ['wv', 'sv', 'yr', 'ya', 'rarad'], 'output_dim': 4, 'reps': 2, 'encoding': 'serial', 'ansatz': 'effsu2', 'entangle': 'rev', 'map': [-1, 2, 4, 0, 3, 1]}]</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>1</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>serial</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>effsu2</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>rev</t>
+        </is>
+      </c>
+      <c r="V66" t="n">
+        <v>2</v>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>[-1, 2, 4, 0, 3, 1]</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>spsa</t>
+        </is>
+      </c>
+      <c r="Z66" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AB66" t="inlineStr"/>
+      <c r="AC66" t="n">
+        <v>256</v>
+      </c>
+      <c r="AD66" t="inlineStr">
+        <is>
+          <t>[0.05, 0.001]</t>
+        </is>
+      </c>
+      <c r="AE66" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>0.1886325591879706</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>67.43729058918562</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>0.4523878054491091</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>-0.3312497021662218</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>78.94855940100349</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>0.3552160934854093</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>78.94855940100349</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>78.94855940100349</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>0.3552160934854093</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>89.34367192235797</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>-0.0771944910759268</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU66" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="AV66" t="n">
+        <v>0.08621350628102158</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>0.3739784739109414</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>0.08621350628102158</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>0.08621350628102158</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>0.3739784739109414</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>0.168771252768548</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>-0.2254975093315126</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>0.1459332028753505</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>0.4943726207438273</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>0.1459332028753505</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>0.1459332028753505</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>0.4943726207438273</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>0.3103909311951248</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>-0.07543828267188024</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>0.1369301174008737</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>0.4502688898924561</v>
+      </c>
+      <c r="BL66" t="n">
+        <v>0.1369301174008737</v>
+      </c>
+      <c r="BM66" t="n">
+        <v>0.1369301174008737</v>
+      </c>
+      <c r="BN66" t="n">
+        <v>0.4502688898924561</v>
+      </c>
+      <c r="BO66" t="n">
+        <v>0.2472818472591057</v>
+      </c>
+      <c r="BP66" t="n">
+        <v>0.007241598974011221</v>
+      </c>
+      <c r="BQ66" t="n">
+        <v>315.4251607774575</v>
+      </c>
+      <c r="BR66" t="n">
+        <v>0.1022443893944014</v>
+      </c>
+      <c r="BS66" t="n">
+        <v>315.4251607774575</v>
+      </c>
+      <c r="BT66" t="n">
+        <v>315.4251607774575</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>0.1022443893944014</v>
+      </c>
+      <c r="BV66" t="n">
+        <v>356.6482436582073</v>
+      </c>
+      <c r="BW66" t="n">
+        <v>-0.01508377127431304</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>46079.98356481481</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>02-26_23-36-20_multihead_spsa_serial_f5_w5_h5_effsu2_full_r2.pkl</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Final (Last Iteration)</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>data/reduce_row_number_absolutes</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>16590</v>
+      </c>
+      <c r="G67" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>['wv', 'sv', 'yr', 'ya', 'rarad']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['Surge Velocity', 'Sway Velocity', 'Yaw Rate', 'Yaw Angle']</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>5</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>motion</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>multihead</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>[{'features': ['wv', 'sv', 'yr', 'ya', 'rarad'], 'output_dim': 4, 'reps': 2, 'encoding': 'serial', 'ansatz': 'effsu2', 'entangle': 'full', 'map': [-1, 2, 4, 0, 3, 1]}]</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>1</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>serial</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>effsu2</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="V67" t="n">
+        <v>2</v>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>[-1, 2, 4, 0, 3, 1]</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>spsa</t>
+        </is>
+      </c>
+      <c r="Z67" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AB67" t="inlineStr"/>
+      <c r="AC67" t="n">
+        <v>256</v>
+      </c>
+      <c r="AD67" t="inlineStr">
+        <is>
+          <t>[0.05, 0.001]</t>
+        </is>
+      </c>
+      <c r="AE67" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>0.1724337879028529</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>43.9702097255139</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>0.45955358095765</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>0.02669504382798249</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>62.86002425442451</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>0.3974133076537082</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>62.86002425442451</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>62.86002425442451</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>0.3974133076537082</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>94.04993443354071</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>0.07983100492006981</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU67" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="AV67" t="n">
+        <v>0.09947270204156564</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>0.2776995690990559</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>0.09947270204156564</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>0.09947270204156564</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>0.2776995690990559</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>0.1629688439243591</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>-0.1833645188486581</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>0.1276556643741728</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>0.557700387896982</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>0.1276556643741728</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>0.1276556643741728</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>0.557700387896982</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>0.2193076006745753</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>0.2401460038209383</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>0.132296069066241</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>0.468873128197691</v>
+      </c>
+      <c r="BL67" t="n">
+        <v>0.132296069066241</v>
+      </c>
+      <c r="BM67" t="n">
+        <v>0.132296069066241</v>
+      </c>
+      <c r="BN67" t="n">
+        <v>0.468873128197691</v>
+      </c>
+      <c r="BO67" t="n">
+        <v>0.1664610587703712</v>
+      </c>
+      <c r="BP67" t="n">
+        <v>0.3317115009869307</v>
+      </c>
+      <c r="BQ67" t="n">
+        <v>251.0806725822159</v>
+      </c>
+      <c r="BR67" t="n">
+        <v>0.2853801454211039</v>
+      </c>
+      <c r="BS67" t="n">
+        <v>251.0806725822159</v>
+      </c>
+      <c r="BT67" t="n">
+        <v>251.0806725822159</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>0.2853801454211039</v>
+      </c>
+      <c r="BV67" t="n">
+        <v>375.6510002307925</v>
+      </c>
+      <c r="BW67" t="n">
+        <v>-0.06916896627892788</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>46079.99402777778</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>02-26_23-51-24_multihead_spsa_serial_f5_w5_h5_effsu2_lin_r2.pkl</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>3</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Final (Last Iteration)</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>data/reduce_row_number_absolutes</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>16590</v>
+      </c>
+      <c r="G68" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>['wv', 'sv', 'yr', 'ya', 'rarad']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['Surge Velocity', 'Sway Velocity', 'Yaw Rate', 'Yaw Angle']</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>5</v>
+      </c>
+      <c r="K68" t="n">
+        <v>5</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>motion</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>multihead</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>[{'features': ['wv', 'sv', 'yr', 'ya', 'rarad'], 'output_dim': 4, 'reps': 2, 'encoding': 'serial', 'ansatz': 'effsu2', 'entangle': 'lin', 'map': [-1, 2, 4, 0, 3, 1]}]</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>1</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>serial</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>effsu2</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>lin</t>
+        </is>
+      </c>
+      <c r="V68" t="n">
+        <v>2</v>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>[-1, 2, 4, 0, 3, 1]</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>spsa</t>
+        </is>
+      </c>
+      <c r="Z68" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AB68" t="inlineStr"/>
+      <c r="AC68" t="n">
+        <v>256</v>
+      </c>
+      <c r="AD68" t="inlineStr">
+        <is>
+          <t>[0.05, 0.001]</t>
+        </is>
+      </c>
+      <c r="AE68" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>0.1654134314482306</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>50.24089171076265</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>0.5014449220734354</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>0.01693661703335042</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>67.43680741401289</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>0.4029016124657707</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>67.43680741401289</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>67.43680741401289</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>0.4029016124657707</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>91.22732870710371</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>0.04265327234135521</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU68" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="AV68" t="n">
+        <v>0.08653064672212002</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>0.3716756242591265</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>0.08653064672212002</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>0.08653064672212002</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>0.3716756242591265</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>0.1539875282541565</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>-0.1181485546142296</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>0.1493474645277071</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>0.4825429333432807</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>0.1493474645277071</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>0.1493474645277071</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>0.4825429333432807</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>0.246503065810625</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>0.1459195255866553</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>0.1185330386122682</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>0.5241273421976429</v>
+      </c>
+      <c r="BL68" t="n">
+        <v>0.1185330386122682</v>
+      </c>
+      <c r="BM68" t="n">
+        <v>0.1185330386122682</v>
+      </c>
+      <c r="BN68" t="n">
+        <v>0.5241273421976429</v>
+      </c>
+      <c r="BO68" t="n">
+        <v>0.2043207153568245</v>
+      </c>
+      <c r="BP68" t="n">
+        <v>0.1797169548738156</v>
+      </c>
+      <c r="BQ68" t="n">
+        <v>269.3928185061901</v>
+      </c>
+      <c r="BR68" t="n">
+        <v>0.2332605500630307</v>
+      </c>
+      <c r="BS68" t="n">
+        <v>269.3928185061901</v>
+      </c>
+      <c r="BT68" t="n">
+        <v>269.3928185061901</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>0.2332605500630307</v>
+      </c>
+      <c r="BV68" t="n">
+        <v>364.3045035189928</v>
+      </c>
+      <c r="BW68" t="n">
+        <v>-0.03687483648082068</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>46080.02881944444</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>02-27_00-41-30_multihead_spsa_serial_f5_w5_h5_effsu2_rev_r2.pkl</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Final (Last Iteration)</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>data/reduce_row_number_absolutes</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>16590</v>
+      </c>
+      <c r="G69" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>['wv', 'sv', 'yr', 'ya', 'rarad']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['Surge Velocity', 'Sway Velocity', 'Yaw Rate', 'Yaw Angle']</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>5</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>motion</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>multihead</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>[{'features': ['wv', 'sv', 'yr', 'ya', 'rarad'], 'output_dim': 4, 'reps': 2, 'encoding': 'serial', 'ansatz': 'effsu2', 'entangle': 'rev', 'map': [0, 1, -1, 2, 3, 4]}]</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>1</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>serial</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>effsu2</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>rev</t>
+        </is>
+      </c>
+      <c r="V69" t="n">
+        <v>2</v>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>[0, 1, -1, 2, 3, 4]</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>spsa</t>
+        </is>
+      </c>
+      <c r="Z69" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AB69" t="inlineStr"/>
+      <c r="AC69" t="n">
+        <v>256</v>
+      </c>
+      <c r="AD69" t="inlineStr">
+        <is>
+          <t>[0.05, 0.001]</t>
+        </is>
+      </c>
+      <c r="AE69" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>0.1915178936799687</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>58.21555237092574</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>0.3311783725060898</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>-0.1538662182383515</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>69.23267719053197</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>0.281936069164652</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>69.23267719053197</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>69.23267719053197</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>0.281936069164652</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>96.03500392226945</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>-0.1258340755484818</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU69" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="AV69" t="n">
+        <v>0.1231340763616241</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>0.1058873983595374</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>0.1231340763616241</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>0.1231340763616241</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>0.1058873983595374</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>0.1450851794558938</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>-0.05350599197097572</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>0.1744379089988544</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>0.395609902118338</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>0.1744379089988544</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>0.1744379089988544</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>0.395609902118338</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>0.3916784953904346</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>-0.3570823310472129</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>0.1461690182054489</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>0.4131776254440098</v>
+      </c>
+      <c r="BL69" t="n">
+        <v>0.1461690182054489</v>
+      </c>
+      <c r="BM69" t="n">
+        <v>0.1461690182054489</v>
+      </c>
+      <c r="BN69" t="n">
+        <v>0.4131776254440098</v>
+      </c>
+      <c r="BO69" t="n">
+        <v>0.2494980160732226</v>
+      </c>
+      <c r="BP69" t="n">
+        <v>-0.001655617836250567</v>
+      </c>
+      <c r="BQ69" t="n">
+        <v>276.4869677585624</v>
+      </c>
+      <c r="BR69" t="n">
+        <v>0.2130693507367216</v>
+      </c>
+      <c r="BS69" t="n">
+        <v>276.4869677585624</v>
+      </c>
+      <c r="BT69" t="n">
+        <v>276.4869677585624</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>0.2130693507367216</v>
+      </c>
+      <c r="BV69" t="n">
+        <v>383.3537539981595</v>
+      </c>
+      <c r="BW69" t="n">
+        <v>-0.09109236133949539</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>46080.07640046296</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>02-27_01-50-01_multihead_spsa_serial_f5_w5_h5_effsu2_lin_r2.pkl</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Best (Lowest Val Loss)</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>data/reduce_row_number_absolutes</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>16590</v>
+      </c>
+      <c r="G70" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>['wv', 'sv', 'yr', 'ya', 'rarad']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['Surge Velocity', 'Sway Velocity', 'Yaw Rate', 'Yaw Angle']</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>5</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>motion</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>multihead</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>[{'features': ['wv', 'sv', 'yr', 'ya', 'rarad'], 'output_dim': 4, 'reps': 2, 'encoding': 'serial', 'ansatz': 'effsu2', 'entangle': 'lin', 'map': [0, 1, -1, 2, 3, 4]}]</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>1</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>serial</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>effsu2</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>lin</t>
+        </is>
+      </c>
+      <c r="V70" t="n">
+        <v>2</v>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>[0, 1, -1, 2, 3, 4]</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>spsa</t>
+        </is>
+      </c>
+      <c r="Z70" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AB70" t="inlineStr"/>
+      <c r="AC70" t="n">
+        <v>256</v>
+      </c>
+      <c r="AD70" t="inlineStr">
+        <is>
+          <t>[0.05, 0.001]</t>
+        </is>
+      </c>
+      <c r="AE70" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>0.2055093827549858</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>64.16445486968499</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>0.3205486737219982</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>-0.2127777757815553</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>68.28477128299581</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>0.2909767770434767</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>68.28477128299581</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>68.28477128299581</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>0.2909767770434767</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>94.56263690645432</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>-0.123767222842097</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU70" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="AV70" t="n">
+        <v>0.10760761293369</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>0.2186295979197578</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>0.10760761293369</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>0.10760761293369</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>0.2186295979197578</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>0.1435655547009884</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>-0.04247155143856451</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>0.1723043749088505</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>0.4030021420557004</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>0.1723043749088505</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>0.1723043749088505</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>0.4030021420557004</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>0.37069379705241</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>-0.2843748332600249</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>0.1697773954736351</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>0.3183974580869422</v>
+      </c>
+      <c r="BL70" t="n">
+        <v>0.1697773954736351</v>
+      </c>
+      <c r="BM70" t="n">
+        <v>0.1697773954736351</v>
+      </c>
+      <c r="BN70" t="n">
+        <v>0.3183974580869422</v>
+      </c>
+      <c r="BO70" t="n">
+        <v>0.272473258720412</v>
+      </c>
+      <c r="BP70" t="n">
+        <v>-0.09389394995170264</v>
+      </c>
+      <c r="BQ70" t="n">
+        <v>272.6893957486676</v>
+      </c>
+      <c r="BR70" t="n">
+        <v>0.223877910111499</v>
+      </c>
+      <c r="BS70" t="n">
+        <v>272.6893957486676</v>
+      </c>
+      <c r="BT70" t="n">
+        <v>272.6893957486676</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>0.223877910111499</v>
+      </c>
+      <c r="BV70" t="n">
+        <v>377.4638150153414</v>
+      </c>
+      <c r="BW70" t="n">
+        <v>-0.07432855671808714</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>46080.07366898148</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>02-27_01-46-05_multihead_spsa_serial_f5_w5_h5_effsu2_full_r2.pkl</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>2</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Best (Lowest Val Loss)</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>data/reduce_row_number_absolutes</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>16590</v>
+      </c>
+      <c r="G71" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>['wv', 'sv', 'yr', 'ya', 'rarad']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['Surge Velocity', 'Sway Velocity', 'Yaw Rate', 'Yaw Angle']</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>5</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>motion</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>multihead</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>[{'features': ['wv', 'sv', 'yr', 'ya', 'rarad'], 'output_dim': 4, 'reps': 2, 'encoding': 'serial', 'ansatz': 'effsu2', 'entangle': 'full', 'map': [-1, 2, 4, 0, 3, 1]}]</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>1</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>serial</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>effsu2</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="V71" t="n">
+        <v>2</v>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>[-1, 2, 4, 0, 3, 1]</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>spsa</t>
+        </is>
+      </c>
+      <c r="Z71" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AB71" t="inlineStr"/>
+      <c r="AC71" t="n">
+        <v>256</v>
+      </c>
+      <c r="AD71" t="inlineStr">
+        <is>
+          <t>[0.05, 0.001]</t>
+        </is>
+      </c>
+      <c r="AE71" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>0.2018501725767473</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>57.02607636794449</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>0.396314895796862</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>0.00121523947754329</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>79.51492434228356</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>0.3051245414115964</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>79.51492434228356</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>79.51492434228356</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>0.3051245414115964</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>97.43546605789122</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>0.01147270265236777</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU71" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="AV71" t="n">
+        <v>0.07387315224026143</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>0.4635853998129511</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>0.07387315224026143</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>0.07387315224026143</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>0.4635853998129511</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>0.1330002656128492</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>0.03424610782203563</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>0.1841799289168115</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>0.3618558838228202</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>0.1841799289168115</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>0.1841799289168115</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>0.3618558838228202</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>0.2621252202595347</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>0.09179209703234403</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>0.1745892281475616</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>0.2990794718929678</v>
+      </c>
+      <c r="BL71" t="n">
+        <v>0.1745892281475616</v>
+      </c>
+      <c r="BM71" t="n">
+        <v>0.1745892281475616</v>
+      </c>
+      <c r="BN71" t="n">
+        <v>0.2990794718929678</v>
+      </c>
+      <c r="BO71" t="n">
+        <v>0.2422824794342327</v>
+      </c>
+      <c r="BP71" t="n">
+        <v>0.02731247948131033</v>
+      </c>
+      <c r="BQ71" t="n">
+        <v>317.6270550598284</v>
+      </c>
+      <c r="BR71" t="n">
+        <v>0.09597741011764827</v>
+      </c>
+      <c r="BS71" t="n">
+        <v>317.6270550598284</v>
+      </c>
+      <c r="BT71" t="n">
+        <v>317.6270550598284</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>0.09597741011764827</v>
+      </c>
+      <c r="BV71" t="n">
+        <v>389.1044562662597</v>
+      </c>
+      <c r="BW71" t="n">
+        <v>-0.1074598737262189</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>46080.11178240741</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>02-27_02-40-58_multihead_spsa_serial_f5_w5_h5_effsu2_rev_r2.pkl</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>2</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Final (Last Iteration)</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>data/reduce_row_number_absolutes</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>16590</v>
+      </c>
+      <c r="G72" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>['wv', 'sv', 'yr', 'ya', 'rarad']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['Surge Velocity', 'Sway Velocity', 'Yaw Rate', 'Yaw Angle']</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>5</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>motion</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>multihead</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>[{'features': ['wv', 'sv', 'yr', 'ya', 'rarad'], 'output_dim': 4, 'reps': 2, 'encoding': 'serial', 'ansatz': 'effsu2', 'entangle': 'rev', 'map': [0, 1, -1, 2, 3, 4]}]</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>1</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>serial</t>
+        </is>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>effsu2</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>rev</t>
+        </is>
+      </c>
+      <c r="V72" t="n">
+        <v>2</v>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>[0, 1, -1, 2, 3, 4]</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>spsa</t>
+        </is>
+      </c>
+      <c r="Z72" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AB72" t="inlineStr"/>
+      <c r="AC72" t="n">
+        <v>256</v>
+      </c>
+      <c r="AD72" t="inlineStr">
+        <is>
+          <t>[0.05, 0.001]</t>
+        </is>
+      </c>
+      <c r="AE72" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>0.2144379219172748</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>70.46620913672766</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>0.2955068863208458</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>-0.112590764033128</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>78.3071325051077</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>0.2834876649712234</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>78.3071325051077</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>78.3071325051077</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>0.2834876649712234</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>99.27218125072591</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>-0.1201657299317008</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU72" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="AV72" t="n">
+        <v>0.09866719228873753</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>0.2835486113952985</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>0.09866719228873753</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>0.09866719228873753</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>0.2835486113952985</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>0.154592354052732</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>-0.1225403719265667</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>0.1820226689968075</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>0.3693303286937225</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>0.1820226689968075</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>0.1820226689968075</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>0.3693303286937225</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>0.3315772010387357</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>-0.1488441826738769</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>0.1565924734895868</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>0.3713307494369577</v>
+      </c>
+      <c r="BL72" t="n">
+        <v>0.1565924734895868</v>
+      </c>
+      <c r="BM72" t="n">
+        <v>0.1565924734895868</v>
+      </c>
+      <c r="BN72" t="n">
+        <v>0.3713307494369577</v>
+      </c>
+      <c r="BO72" t="n">
+        <v>0.2693223674916592</v>
+      </c>
+      <c r="BP72" t="n">
+        <v>-0.08124411830115763</v>
+      </c>
+      <c r="BQ72" t="n">
+        <v>312.7912476856563</v>
+      </c>
+      <c r="BR72" t="n">
+        <v>0.1097409703589123</v>
+      </c>
+      <c r="BS72" t="n">
+        <v>312.7912476856563</v>
+      </c>
+      <c r="BT72" t="n">
+        <v>312.7912476856563</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>0.1097409703589123</v>
+      </c>
+      <c r="BV72" t="n">
+        <v>396.3332330803231</v>
+      </c>
+      <c r="BW72" t="n">
+        <v>-0.1280342468251985</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>46080.15858796296</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>02-27_03-48-22_multihead_spsa_serial_f5_w5_h5_effsu2_lin_r2.pkl</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>2</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Final (Last Iteration)</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>data/reduce_row_number_absolutes</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>16590</v>
+      </c>
+      <c r="G73" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>['wv', 'sv', 'yr', 'ya', 'rarad']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['Surge Velocity', 'Sway Velocity', 'Yaw Rate', 'Yaw Angle']</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>5</v>
+      </c>
+      <c r="K73" t="n">
+        <v>5</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>motion</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>multihead</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>[{'features': ['wv', 'sv', 'yr', 'ya', 'rarad'], 'output_dim': 4, 'reps': 2, 'encoding': 'serial', 'ansatz': 'effsu2', 'entangle': 'lin', 'map': [0, 1, -1, 2, 3, 4]}]</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>1</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>serial</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>effsu2</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>lin</t>
+        </is>
+      </c>
+      <c r="V73" t="n">
+        <v>2</v>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>[0, 1, -1, 2, 3, 4]</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>spsa</t>
+        </is>
+      </c>
+      <c r="Z73" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AB73" t="inlineStr"/>
+      <c r="AC73" t="n">
+        <v>256</v>
+      </c>
+      <c r="AD73" t="inlineStr">
+        <is>
+          <t>[0.05, 0.001]</t>
+        </is>
+      </c>
+      <c r="AE73" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>0.2190500611306101</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>81.29869180418191</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>0.2863296385375363</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>0.007061803209135908</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>87.5573670923102</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>0.2335789591020238</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>87.5573670923102</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>87.5573670923102</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>0.2335789591020238</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>90.56182395608533</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>-0.0118651963408706</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU73" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="AV73" t="n">
+        <v>0.100178136143866</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>0.2725772054193115</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>0.100178136143866</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>0.100178136143866</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>0.2725772054193115</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>0.1331505162112257</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>0.03315509421002838</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>0.2045639328828476</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>0.2912296637370608</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>0.2045639328828476</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>0.2045639328828476</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>0.2912296637370608</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>0.301276847322014</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>-0.04385992865591204</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>0.1579185531938758</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>0.3660069588657735</v>
+      </c>
+      <c r="BL73" t="n">
+        <v>0.1579185531938758</v>
+      </c>
+      <c r="BM73" t="n">
+        <v>0.1579185531938758</v>
+      </c>
+      <c r="BN73" t="n">
+        <v>0.3660069588657735</v>
+      </c>
+      <c r="BO73" t="n">
+        <v>0.2510003811373701</v>
+      </c>
+      <c r="BP73" t="n">
+        <v>-0.007687138367871382</v>
+      </c>
+      <c r="BQ73" t="n">
+        <v>349.7668077470184</v>
+      </c>
+      <c r="BR73" t="n">
+        <v>0.004502008385957157</v>
+      </c>
+      <c r="BS73" t="n">
+        <v>349.7668077470184</v>
+      </c>
+      <c r="BT73" t="n">
+        <v>349.7668077470184</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>0.004502008385957157</v>
+      </c>
+      <c r="BV73" t="n">
+        <v>361.5618680796713</v>
+      </c>
+      <c r="BW73" t="n">
+        <v>-0.02906881254973093</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>46080.16384259259</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>02-27_03-55-56_multihead_spsa_serial_f5_w5_h5_effsu2_full_r2.pkl</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>3</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Best (Lowest Val Loss)</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>data/reduce_row_number_absolutes</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>16590</v>
+      </c>
+      <c r="G74" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>['wv', 'sv', 'yr', 'ya', 'rarad']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['Surge Velocity', 'Sway Velocity', 'Yaw Rate', 'Yaw Angle']</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>5</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>motion</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>multihead</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>[{'features': ['wv', 'sv', 'yr', 'ya', 'rarad'], 'output_dim': 4, 'reps': 2, 'encoding': 'serial', 'ansatz': 'effsu2', 'entangle': 'full', 'map': [-1, 2, 4, 0, 3, 1]}]</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>1</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>serial</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>effsu2</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="V74" t="n">
+        <v>2</v>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>[-1, 2, 4, 0, 3, 1]</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>spsa</t>
+        </is>
+      </c>
+      <c r="Z74" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AB74" t="inlineStr"/>
+      <c r="AC74" t="n">
+        <v>256</v>
+      </c>
+      <c r="AD74" t="inlineStr">
+        <is>
+          <t>[0.05, 0.001]</t>
+        </is>
+      </c>
+      <c r="AE74" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>0.2075882390661978</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>76.463871180526</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>0.3464676045135153</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>0.1387425357345975</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>85.34548820677462</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>0.29823679289365</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>85.34548820677462</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>85.34548820677462</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>0.29823679289365</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>82.08086837175917</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>0.1492421147758067</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU74" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="AV74" t="n">
+        <v>0.08648623662814139</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>0.3719980989618213</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>0.08648623662814139</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>0.08648623662814139</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>0.3719980989618213</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>0.1961241732049828</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>-0.4241150778919849</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>0.1848101467471762</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>0.359672313643798</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>0.1848101467471762</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>0.1848101467471762</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>0.359672313643798</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>0.1669090347440387</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>0.4216958433791718</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>0.1415466550779927</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>0.4317349513384844</v>
+      </c>
+      <c r="BL74" t="n">
+        <v>0.1415466550779927</v>
+      </c>
+      <c r="BM74" t="n">
+        <v>0.1415466550779927</v>
+      </c>
+      <c r="BN74" t="n">
+        <v>0.4317349513384844</v>
+      </c>
+      <c r="BO74" t="n">
+        <v>0.1164501498532198</v>
+      </c>
+      <c r="BP74" t="n">
+        <v>0.53248948174354</v>
+      </c>
+      <c r="BQ74" t="n">
+        <v>340.9691097886444</v>
+      </c>
+      <c r="BR74" t="n">
+        <v>0.02954180763049519</v>
+      </c>
+      <c r="BS74" t="n">
+        <v>340.9691097886444</v>
+      </c>
+      <c r="BT74" t="n">
+        <v>340.9691097886444</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>0.02954180763049519</v>
+      </c>
+      <c r="BV74" t="n">
+        <v>327.8439901292338</v>
+      </c>
+      <c r="BW74" t="n">
+        <v>0.06689821187251166</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>46080.19429398148</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>02-27_04-39-47_multihead_spsa_serial_f5_w5_h5_effsu2_rev_r2.pkl</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>3</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Final (Last Iteration)</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>data/reduce_row_number_absolutes</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>16590</v>
+      </c>
+      <c r="G75" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>['wv', 'sv', 'yr', 'ya', 'rarad']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['Surge Velocity', 'Sway Velocity', 'Yaw Rate', 'Yaw Angle']</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>5</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>motion</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>multihead</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>[{'features': ['wv', 'sv', 'yr', 'ya', 'rarad'], 'output_dim': 4, 'reps': 2, 'encoding': 'serial', 'ansatz': 'effsu2', 'entangle': 'rev', 'map': [0, 1, -1, 2, 3, 4]}]</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>1</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>serial</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>effsu2</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>rev</t>
+        </is>
+      </c>
+      <c r="V75" t="n">
+        <v>2</v>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>[0, 1, -1, 2, 3, 4]</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t>spsa</t>
+        </is>
+      </c>
+      <c r="Z75" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AB75" t="inlineStr"/>
+      <c r="AC75" t="n">
+        <v>256</v>
+      </c>
+      <c r="AD75" t="inlineStr">
+        <is>
+          <t>[0.05, 0.001]</t>
+        </is>
+      </c>
+      <c r="AE75" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>0.1548286872847827</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>53.14934692787592</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>0.5511402496070642</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>0.01724176655238885</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>58.40508833216395</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>0.5093691656454937</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>58.40508833216395</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>58.40508833216395</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>0.5093691656454937</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>95.52636686714912</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>0.05895836948389888</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU75" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="AV75" t="n">
+        <v>0.08820665708765395</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>0.359505621993442</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>0.08820665708765395</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>0.08820665708765395</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>0.359505621993442</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>0.1363146384216085</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>0.01017947588382884</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>0.09656264865972536</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>0.6654310464387232</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>0.09656264865972536</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>0.09656264865972536</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>0.6654310464387232</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>0.2421311667596171</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>0.1610672220394072</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>0.08052698595697337</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>0.6767096222218012</v>
+      </c>
+      <c r="BL75" t="n">
+        <v>0.08052698595697337</v>
+      </c>
+      <c r="BM75" t="n">
+        <v>0.08052698595697337</v>
+      </c>
+      <c r="BN75" t="n">
+        <v>0.6767096222218012</v>
+      </c>
+      <c r="BO75" t="n">
+        <v>0.2116114675672191</v>
+      </c>
+      <c r="BP75" t="n">
+        <v>0.150446890827893</v>
+      </c>
+      <c r="BQ75" t="n">
+        <v>233.3550570369521</v>
+      </c>
+      <c r="BR75" t="n">
+        <v>0.3358303719280049</v>
+      </c>
+      <c r="BS75" t="n">
+        <v>233.3550570369521</v>
+      </c>
+      <c r="BT75" t="n">
+        <v>233.3550570369521</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>0.3358303719280049</v>
+      </c>
+      <c r="BV75" t="n">
+        <v>381.5154101958462</v>
+      </c>
+      <c r="BW75" t="n">
+        <v>-0.08586011081553302</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>46080.24091435185</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>02-27_05-46-55_multihead_spsa_serial_f5_w5_h5_effsu2_lin_r2.pkl</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>3</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Final (Last Iteration)</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>data/reduce_row_number_absolutes</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>16590</v>
+      </c>
+      <c r="G76" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>['wv', 'sv', 'yr', 'ya', 'rarad']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['Surge Velocity', 'Sway Velocity', 'Yaw Rate', 'Yaw Angle']</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>5</v>
+      </c>
+      <c r="K76" t="n">
+        <v>5</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>motion</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>multihead</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>[{'features': ['wv', 'sv', 'yr', 'ya', 'rarad'], 'output_dim': 4, 'reps': 2, 'encoding': 'serial', 'ansatz': 'effsu2', 'entangle': 'lin', 'map': [0, 1, -1, 2, 3, 4]}]</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>1</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>serial</t>
+        </is>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>effsu2</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>lin</t>
+        </is>
+      </c>
+      <c r="V76" t="n">
+        <v>2</v>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>[0, 1, -1, 2, 3, 4]</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>spsa</t>
+        </is>
+      </c>
+      <c r="Z76" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AB76" t="inlineStr"/>
+      <c r="AC76" t="n">
+        <v>256</v>
+      </c>
+      <c r="AD76" t="inlineStr">
+        <is>
+          <t>[0.05, 0.001]</t>
+        </is>
+      </c>
+      <c r="AE76" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>0.1794207892679251</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>66.8209281575742</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>0.4678922428210136</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>0.1130731846113781</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>75.99442158222476</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>0.4314335683801575</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>75.99442158222476</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>75.99442158222476</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>0.4314335683801575</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>90.56387112207348</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>0.08169840051091051</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU76" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="AV76" t="n">
+        <v>0.08747800422088184</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>0.3647965839241512</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>0.08747800422088184</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>0.08747800422088184</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>0.3647965839241512</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>0.1204859864947263</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>0.1251159546636117</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>0.1084773967202473</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>0.6241489891848638</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>0.1084773967202473</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>0.1084773967202473</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>0.6241489891848638</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>0.2562134622280082</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>0.1122750759664155</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>0.09935470732964084</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>0.6011222761546753</v>
+      </c>
+      <c r="BL76" t="n">
+        <v>0.09935470732964084</v>
+      </c>
+      <c r="BM76" t="n">
+        <v>0.09935470732964084</v>
+      </c>
+      <c r="BN76" t="n">
+        <v>0.6011222761546753</v>
+      </c>
+      <c r="BO76" t="n">
+        <v>0.2195070487561145</v>
+      </c>
+      <c r="BP76" t="n">
+        <v>0.1187486297418481</v>
+      </c>
+      <c r="BQ76" t="n">
+        <v>303.6823762206299</v>
+      </c>
+      <c r="BR76" t="n">
+        <v>0.135666424256936</v>
+      </c>
+      <c r="BS76" t="n">
+        <v>303.6823762206299</v>
+      </c>
+      <c r="BT76" t="n">
+        <v>303.6823762206299</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>0.135666424256936</v>
+      </c>
+      <c r="BV76" t="n">
+        <v>361.6592779908146</v>
+      </c>
+      <c r="BW76" t="n">
+        <v>-0.02934605832822879</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>46080.2537962963</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>02-27_06-05-28_multihead_spsa_serial_f5_w5_h5_effsu2_full_r2.pkl</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Best (Lowest Val Loss)</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>data/reduce_row_number_absolutes</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>16590</v>
+      </c>
+      <c r="G77" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>['wv', 'sv', 'yr', 'ya', 'rarad']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['Surge Velocity', 'Sway Velocity', 'Yaw Rate', 'Yaw Angle']</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>5</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>motion</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>multihead</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>[{'features': ['wv', 'sv', 'yr', 'ya', 'rarad'], 'output_dim': 4, 'reps': 2, 'encoding': 'serial', 'ansatz': 'effsu2', 'entangle': 'full', 'map': [0, 1, -1, 2, 3, 4]}]</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>1</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>serial</t>
+        </is>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>effsu2</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="V77" t="n">
+        <v>2</v>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>[0, 1, -1, 2, 3, 4]</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>spsa</t>
+        </is>
+      </c>
+      <c r="Z77" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AB77" t="inlineStr"/>
+      <c r="AC77" t="n">
+        <v>256</v>
+      </c>
+      <c r="AD77" t="inlineStr">
+        <is>
+          <t>[0.05, 0.001]</t>
+        </is>
+      </c>
+      <c r="AE77" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>0.1731591282819618</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>65.11007647286631</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>0.4062007939846005</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>0.03050764860034691</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>75.05148614706448</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>0.3361105345783383</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>75.05148614706448</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>75.05148614706448</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>0.3361105345783383</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>85.79688293592427</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>0.04033990998433878</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU77" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="AV77" t="n">
+        <v>0.1085721909674145</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>0.2116255142355155</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>0.1085721909674145</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>0.1085721909674145</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>0.2116255142355155</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>0.1403841747768668</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>-0.01937061979711285</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>0.1452228284103267</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>0.4968339165419279</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>0.1452228284103267</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>0.1452228284103267</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>0.4968339165419279</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>0.2792552737266203</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>0.03244012044015732</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>0.1271987204267377</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>0.4893373706842126</v>
+      </c>
+      <c r="BL77" t="n">
+        <v>0.1271987204267377</v>
+      </c>
+      <c r="BM77" t="n">
+        <v>0.1271987204267377</v>
+      </c>
+      <c r="BN77" t="n">
+        <v>0.4893373706842126</v>
+      </c>
+      <c r="BO77" t="n">
+        <v>0.2183867146836308</v>
+      </c>
+      <c r="BP77" t="n">
+        <v>0.123246416679069</v>
+      </c>
+      <c r="BQ77" t="n">
+        <v>299.8249508484508</v>
+      </c>
+      <c r="BR77" t="n">
+        <v>0.1466453368517034</v>
+      </c>
+      <c r="BS77" t="n">
+        <v>299.8249508484508</v>
+      </c>
+      <c r="BT77" t="n">
+        <v>299.8249508484508</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>0.1466453368517034</v>
+      </c>
+      <c r="BV77" t="n">
+        <v>342.549505580509</v>
+      </c>
+      <c r="BW77" t="n">
+        <v>0.02504372261525156</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>46080.27655092593</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>02-27_06-38-14_multihead_spsa_serial_f5_w5_h5_effsu2_rev_r2.pkl</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Final (Last Iteration)</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>data/reduce_row_number_absolutes</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>16590</v>
+      </c>
+      <c r="G78" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>['wv', 'sv', 'yr', 'ya', 'rarad']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['Surge Velocity', 'Sway Velocity', 'Yaw Rate', 'Yaw Angle']</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>5</v>
+      </c>
+      <c r="K78" t="n">
+        <v>5</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>motion</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>multihead</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>[{'features': ['wv', 'sv', 'yr', 'ya', 'rarad'], 'output_dim': 4, 'reps': 2, 'encoding': 'serial', 'ansatz': 'effsu2', 'entangle': 'rev', 'map': [4, 2, -1, 0, 3, 1]}]</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>1</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>serial</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>effsu2</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>rev</t>
+        </is>
+      </c>
+      <c r="V78" t="n">
+        <v>2</v>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>[4, 2, -1, 0, 3, 1]</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>spsa</t>
+        </is>
+      </c>
+      <c r="Z78" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AB78" t="inlineStr"/>
+      <c r="AC78" t="n">
+        <v>256</v>
+      </c>
+      <c r="AD78" t="inlineStr">
+        <is>
+          <t>[0.05, 0.001]</t>
+        </is>
+      </c>
+      <c r="AE78" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>0.164121391325658</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>63.58333733145424</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>0.4565010457842403</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>-0.03839072313303157</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>72.0235089628671</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>0.4659773631753719</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>72.0235089628671</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>72.0235089628671</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>0.4659773631753719</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>94.02238818658621</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>-0.07281527605795218</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU78" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="AV78" t="n">
+        <v>0.08564181002922722</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>0.3781297278785172</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>0.08564181002922722</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>0.08564181002922722</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>0.3781297278785172</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>0.1416079447507158</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>-0.02825677209109068</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>0.1015974524032823</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>0.647986526810806</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>0.1015974524032823</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>0.1015974524032823</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>0.647986526810806</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>0.3361454315944689</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>-0.1646721258576243</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>0.08544047582331465</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>0.6569835145546451</v>
+      </c>
+      <c r="BL78" t="n">
+        <v>0.08544047582331465</v>
+      </c>
+      <c r="BM78" t="n">
+        <v>0.08544047582331465</v>
+      </c>
+      <c r="BN78" t="n">
+        <v>0.6569835145546451</v>
+      </c>
+      <c r="BO78" t="n">
+        <v>0.256559446130935</v>
+      </c>
+      <c r="BP78" t="n">
+        <v>-0.03000502597418797</v>
+      </c>
+      <c r="BQ78" t="n">
+        <v>287.8213561132126</v>
+      </c>
+      <c r="BR78" t="n">
+        <v>0.1808096834575184</v>
+      </c>
+      <c r="BS78" t="n">
+        <v>287.8213561132126</v>
+      </c>
+      <c r="BT78" t="n">
+        <v>287.8213561132126</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>0.1808096834575184</v>
+      </c>
+      <c r="BV78" t="n">
+        <v>375.3552399238693</v>
+      </c>
+      <c r="BW78" t="n">
+        <v>-0.06832718030890494</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>46080.32292824074</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>02-27_07-45-01_multihead_spsa_serial_f5_w5_h5_effsu2_lin_r2.pkl</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Best (Lowest Val Loss)</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>data/reduce_row_number_absolutes</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>16590</v>
+      </c>
+      <c r="G79" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>['wv', 'sv', 'yr', 'ya', 'rarad']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['Surge Velocity', 'Sway Velocity', 'Yaw Rate', 'Yaw Angle']</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>5</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>motion</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>multihead</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>[{'features': ['wv', 'sv', 'yr', 'ya', 'rarad'], 'output_dim': 4, 'reps': 2, 'encoding': 'serial', 'ansatz': 'effsu2', 'entangle': 'lin', 'map': [4, 2, -1, 0, 3, 1]}]</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>1</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>serial</t>
+        </is>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>effsu2</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>lin</t>
+        </is>
+      </c>
+      <c r="V79" t="n">
+        <v>2</v>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>[4, 2, -1, 0, 3, 1]</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>spsa</t>
+        </is>
+      </c>
+      <c r="Z79" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AB79" t="inlineStr"/>
+      <c r="AC79" t="n">
+        <v>256</v>
+      </c>
+      <c r="AD79" t="inlineStr">
+        <is>
+          <t>[0.05, 0.001]</t>
+        </is>
+      </c>
+      <c r="AE79" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>0.1631853046083204</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>71.1956281269205</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>0.4308325084502753</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>-0.008649429572002293</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>81.37937395027144</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>0.4420138181974029</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>81.37937395027144</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>81.37937395027144</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>0.4420138181974029</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>89.78545045362696</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>-0.02145149071902722</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU79" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="AV79" t="n">
+        <v>0.1002568617856033</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>0.2720055554713079</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>0.1002568617856033</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>0.1002568617856033</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>0.2720055554713079</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>0.1348147374600684</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>0.02107069617436141</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>0.08861551610572897</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>0.6929661633737695</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>0.08861551610572897</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>0.08861551610572897</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>0.6929661633737695</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>0.3133830616483439</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>-0.0858053756270456</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>0.06754357161968681</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>0.7288339241073205</v>
+      </c>
+      <c r="BL79" t="n">
+        <v>0.06754357161968681</v>
+      </c>
+      <c r="BM79" t="n">
+        <v>0.06754357161968681</v>
+      </c>
+      <c r="BN79" t="n">
+        <v>0.7288339241073205</v>
+      </c>
+      <c r="BO79" t="n">
+        <v>0.249303729420364</v>
+      </c>
+      <c r="BP79" t="n">
+        <v>-0.0008756183782616667</v>
+      </c>
+      <c r="BQ79" t="n">
+        <v>325.2610798515744</v>
+      </c>
+      <c r="BR79" t="n">
+        <v>0.0742496298372175</v>
+      </c>
+      <c r="BS79" t="n">
+        <v>325.2610798515744</v>
+      </c>
+      <c r="BT79" t="n">
+        <v>325.2610798515744</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>0.0742496298372175</v>
+      </c>
+      <c r="BV79" t="n">
+        <v>358.444300285979</v>
+      </c>
+      <c r="BW79" t="n">
+        <v>-0.02019566504516246</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>46080.34346064815</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>02-27_08-14-35_multihead_spsa_serial_f5_w5_h5_effsu2_full_r2.pkl</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>2</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Final (Last Iteration)</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>data/reduce_row_number_absolutes</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>16590</v>
+      </c>
+      <c r="G80" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>['wv', 'sv', 'yr', 'ya', 'rarad']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['Surge Velocity', 'Sway Velocity', 'Yaw Rate', 'Yaw Angle']</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>5</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>motion</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>multihead</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>[{'features': ['wv', 'sv', 'yr', 'ya', 'rarad'], 'output_dim': 4, 'reps': 2, 'encoding': 'serial', 'ansatz': 'effsu2', 'entangle': 'full', 'map': [0, 1, -1, 2, 3, 4]}]</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>1</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>serial</t>
+        </is>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>effsu2</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>[0, 1, -1, 2, 3, 4]</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>spsa</t>
+        </is>
+      </c>
+      <c r="Z80" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AB80" t="inlineStr"/>
+      <c r="AC80" t="n">
+        <v>256</v>
+      </c>
+      <c r="AD80" t="inlineStr">
+        <is>
+          <t>[0.05, 0.001]</t>
+        </is>
+      </c>
+      <c r="AE80" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>0.1558609227930398</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>74.26898765502348</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>0.4420467689714722</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>0.2115616501841328</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>78.87881647504904</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>0.4014418185183362</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>78.87881647504904</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>78.87881647504904</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>0.4014418185183362</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>86.44351599693573</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>0.2013840991930481</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU80" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="AV80" t="n">
+        <v>0.1115218438983178</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>0.1902072201782233</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>0.1115218438983178</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>0.1115218438983178</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>0.1902072201782233</v>
+      </c>
+      <c r="BA80" t="n">
+        <v>0.1186505075094933</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>0.1384439052946245</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>0.1009965672046168</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>0.6500684656859131</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>0.1009965672046168</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>0.1009965672046168</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>0.6500684656859131</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>0.2098726667711911</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>0.2728360346640095</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>0.08402663596164191</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>0.6626596343990199</v>
+      </c>
+      <c r="BL80" t="n">
+        <v>0.08402663596164191</v>
+      </c>
+      <c r="BM80" t="n">
+        <v>0.08402663596164191</v>
+      </c>
+      <c r="BN80" t="n">
+        <v>0.6626596343990199</v>
+      </c>
+      <c r="BO80" t="n">
+        <v>0.155176932174197</v>
+      </c>
+      <c r="BP80" t="n">
+        <v>0.3770137000798333</v>
+      </c>
+      <c r="BQ80" t="n">
+        <v>315.2187208531319</v>
+      </c>
+      <c r="BR80" t="n">
+        <v>0.1028319538101874</v>
+      </c>
+      <c r="BS80" t="n">
+        <v>315.2187208531319</v>
+      </c>
+      <c r="BT80" t="n">
+        <v>315.2187208531319</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>0.1028319538101874</v>
+      </c>
+      <c r="BV80" t="n">
+        <v>345.2903638812887</v>
+      </c>
+      <c r="BW80" t="n">
+        <v>0.01724275673372533</v>
       </c>
     </row>
   </sheetData>
